--- a/sqlite.xlsx
+++ b/sqlite.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\xlladdins\xll_sqlite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356F852-A639-492C-B8D3-C784649EA52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67509DE3-9605-4CCB-86AC-CDCE7A77C9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="4980" windowWidth="28515" windowHeight="15345" xr2:uid="{0E771D47-A395-4249-AFBD-A1F4ABE715CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0E771D47-A395-4249-AFBD-A1F4ABE715CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,37 +59,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SQLite Test</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>db</t>
   </si>
   <si>
-    <t>test</t>
+    <t>from</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>order by</t>
+  </si>
+  <si>
+    <t>table_info</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>[double]</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>bar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,16 +128,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,16 +199,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,125 +597,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78409DF4-B027-4E5B-AA78-9D35F3C3DF4E}">
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" cm="1">
+      <c r="I4" s="7" cm="1">
         <f t="array" ref="I4">_xll.\SQL.DB()</f>
-        <v>2603210865504</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2842715109104</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <f ca="1">RAND()</f>
-        <v>0.23415088756462421</v>
+        <v>2.3211095175694307E-2</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="str">
         <f ca="1">CHAR(CODE("a")+20*RAND())</f>
         <v>r</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <f ca="1">TODAY() + 100*RAND()</f>
-        <v>45242.260526923019</v>
+        <v>45234.937637205978</v>
       </c>
       <c r="F5" s="1" t="b">
         <f ca="1">RAND()&gt;0.5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="e" cm="1">
-        <f t="array" ref="I5">_xll.SQL.CREATE_TABLE(I4,B4:F15)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">_xll.SQL.CREATE_TABLE(I4, H5, B4:F15)</f>
+        <v>2842715109104</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f>H5</f>
+        <v>bar</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B15" ca="1" si="0">RAND()</f>
-        <v>0.4989518980202412</v>
+        <v>0.75775104963309181</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C15" ca="1" si="1">RANDBETWEEN(0,10)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" ref="D6:D15" ca="1" si="2">CHAR(CODE("a")+20*RAND())</f>
-        <v>p</v>
-      </c>
-      <c r="E6" s="1">
+        <v>f</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" ref="E6:E15" ca="1" si="3">TODAY() + 100*RAND()</f>
-        <v>45268.477151652551</v>
+        <v>45261.516150093936</v>
       </c>
       <c r="F6" s="1" t="b">
         <f t="shared" ref="F6:F15" ca="1" si="4">RAND()&gt;0.5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="I6:N11" ca="1">_xll.SQL.TABLE_INFO(I5,H5)</f>
+        <v>cid</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f ca="1"/>
+        <v>name</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f ca="1"/>
+        <v>type</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f ca="1"/>
+        <v>notnull</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f ca="1"/>
+        <v>dflt_value</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f ca="1"/>
+        <v>pk</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16573526517743409</v>
+        <v>5.5557175801361325E-2</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>c</v>
-      </c>
-      <c r="E7" s="1">
+        <v>q</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45250.002640319864</v>
+        <v>45265.779112862627</v>
       </c>
       <c r="F7" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f ca="1"/>
+        <v>double</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f ca="1"/>
+        <v>DOUBLE</v>
+      </c>
+      <c r="L7" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N7" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f>Q6</f>
+        <v>[double]</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45481813951818617</v>
+        <v>0.45520745346006564</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -567,169 +810,365 @@
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>n</v>
-      </c>
-      <c r="E8" s="1">
+        <v>p</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45220.08944623117</v>
+        <v>45227.722727421853</v>
       </c>
       <c r="F8" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f ca="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="str">
+        <f ca="1"/>
+        <v>integer</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f ca="1"/>
+        <v>INTEGER</v>
+      </c>
+      <c r="L8" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N8" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71410273662496238</v>
+        <v>0.68584708025551921</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>f</v>
-      </c>
-      <c r="E9" s="1">
+        <v>g</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45235.166177855819</v>
+        <v>45266.044093221404</v>
       </c>
       <c r="F9" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="1">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f ca="1"/>
+        <v>text</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f ca="1"/>
+        <v>TEXT</v>
+      </c>
+      <c r="L9" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N9" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="P9:T13" ca="1">_xll.SQL.QUERY(I5,P4:S7)</f>
+        <v>double</v>
+      </c>
+      <c r="Q9" s="5" t="str">
+        <f ca="1"/>
+        <v>integer</v>
+      </c>
+      <c r="R9" s="5" t="str">
+        <f ca="1"/>
+        <v>text</v>
+      </c>
+      <c r="S9" s="5" t="str">
+        <f ca="1"/>
+        <v>datetime</v>
+      </c>
+      <c r="T9" s="5" t="str">
+        <f ca="1"/>
+        <v>boolean</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72632950653257555</v>
+        <v>0.5872656787587347</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>l</v>
-      </c>
-      <c r="E10" s="1">
+        <v>k</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45294.97933802467</v>
+        <v>45217.028797897874</v>
       </c>
       <c r="F10" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="1">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f ca="1"/>
+        <v>datetime</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f ca="1"/>
+        <v>DATETIME</v>
+      </c>
+      <c r="L10" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N10" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f ca="1"/>
+        <v>0.5872656787587347</v>
+      </c>
+      <c r="Q10" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f ca="1"/>
+        <v>k</v>
+      </c>
+      <c r="S10" s="1">
+        <f ca="1"/>
+        <v>45217.028796296298</v>
+      </c>
+      <c r="T10" s="1" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4624321884706912E-2</v>
+        <v>0.94849605156548777</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>q</v>
-      </c>
-      <c r="E11" s="1">
+        <v>a</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45218.892474141947</v>
+        <v>45301.744790840399</v>
       </c>
       <c r="F11" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f ca="1"/>
+        <v>boolean</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f ca="1"/>
+        <v>BOOLEAN</v>
+      </c>
+      <c r="L11" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N11" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f ca="1"/>
+        <v>0.68584708025551921</v>
+      </c>
+      <c r="Q11" s="1">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="S11" s="1">
+        <f ca="1"/>
+        <v>45266.044085648144</v>
+      </c>
+      <c r="T11" s="1" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72058863919331873</v>
+        <v>0.1984911974210527</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>p</v>
-      </c>
-      <c r="E12" s="1">
+        <v>a</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45282.026680010968</v>
+        <v>45287.542106678149</v>
       </c>
       <c r="F12" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <f ca="1"/>
+        <v>0.75775104963309181</v>
+      </c>
+      <c r="Q12" s="1">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f ca="1"/>
+        <v>f</v>
+      </c>
+      <c r="S12" s="1">
+        <f ca="1"/>
+        <v>45261.516145833331</v>
+      </c>
+      <c r="T12" s="1" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64877823001535551</v>
+        <v>0.15270737262262768</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>e</v>
-      </c>
-      <c r="E13" s="1">
+        <v>p</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45231.115095053705</v>
+        <v>45274.945589757073</v>
       </c>
       <c r="F13" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="P13" s="1">
+        <f ca="1"/>
+        <v>0.94849605156548777</v>
+      </c>
+      <c r="Q13" s="1">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="S13" s="1">
+        <f ca="1"/>
+        <v>45301.744780092587</v>
+      </c>
+      <c r="T13" s="1" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99344982237701152</v>
+        <v>0.38288710362430667</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>n</v>
-      </c>
-      <c r="E14" s="1">
+        <v>p</v>
+      </c>
+      <c r="E14" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45259.394628454938</v>
+        <v>45234.887118566498</v>
       </c>
       <c r="F14" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95826756496847443</v>
+        <v>0.39233166460269375</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>f</v>
-      </c>
-      <c r="E15" s="1">
+        <v>h</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45215.895878440213</v>
+        <v>45225.169045687348</v>
       </c>
       <c r="F15" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sqlite.xlsx
+++ b/sqlite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67509DE3-9605-4CCB-86AC-CDCE7A77C9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB7051-5FCD-4FBE-B454-248EDC56B35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0E771D47-A395-4249-AFBD-A1F4ABE715CD}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>SQLite Test</t>
   </si>
@@ -106,7 +105,10 @@
     <t>select</t>
   </si>
   <si>
-    <t>bar</t>
+    <t>table_list</t>
+  </si>
+  <si>
+    <t>frob</t>
   </si>
 </sst>
 </file>
@@ -597,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78409DF4-B027-4E5B-AA78-9D35F3C3DF4E}">
-  <dimension ref="B2:T15"/>
+  <dimension ref="B2:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -608,7 +610,8 @@
     <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -639,7 +642,7 @@
       </c>
       <c r="I4" s="7" cm="1">
         <f t="array" ref="I4">_xll.\SQL.DB()</f>
-        <v>2842715109104</v>
+        <v>2169233010864</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>14</v>
@@ -651,59 +654,59 @@
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <f ca="1">RAND()</f>
-        <v>2.3211095175694307E-2</v>
+        <v>0.33482185235487505</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="str">
         <f ca="1">CHAR(CODE("a")+20*RAND())</f>
-        <v>r</v>
+        <v>j</v>
       </c>
       <c r="E5" s="6">
         <f ca="1">TODAY() + 100*RAND()</f>
-        <v>45234.937637205978</v>
+        <v>45219.841518117304</v>
       </c>
       <c r="F5" s="1" t="b">
         <f ca="1">RAND()&gt;0.5</f>
         <v>0</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">_xll.SQL.CREATE_TABLE(I4, H5, B4:F15)</f>
-        <v>2842715109104</v>
+        <v>2169233010864</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q5" s="1" t="str">
         <f>H5</f>
-        <v>bar</v>
+        <v>frob</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B15" ca="1" si="0">RAND()</f>
-        <v>0.75775104963309181</v>
+        <v>0.90771146098546229</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C15" ca="1" si="1">RANDBETWEEN(0,10)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" ref="D6:D15" ca="1" si="2">CHAR(CODE("a")+20*RAND())</f>
-        <v>f</v>
+        <v>a</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ref="E6:E15" ca="1" si="3">TODAY() + 100*RAND()</f>
-        <v>45261.516150093936</v>
+        <v>45283.254231273233</v>
       </c>
       <c r="F6" s="1" t="b">
         <f t="shared" ref="F6:F15" ca="1" si="4">RAND()&gt;0.5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>7</v>
@@ -748,19 +751,19 @@
     <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5557175801361325E-2</v>
+        <v>0.71924249081001557</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>q</v>
+        <v>b</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45265.779112862627</v>
+        <v>45302.911377383731</v>
       </c>
       <c r="F7" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
@@ -802,19 +805,19 @@
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45520745346006564</v>
+        <v>8.3924021127611104E-2</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>p</v>
+        <v>b</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45227.722727421853</v>
+        <v>45230.315925508017</v>
       </c>
       <c r="F8" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
@@ -848,19 +851,19 @@
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68584708025551921</v>
+        <v>0.78611058991781702</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>g</v>
+        <v>t</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45266.044093221404</v>
+        <v>45282.311542304735</v>
       </c>
       <c r="F9" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="P9:T13" ca="1">_xll.SQL.QUERY(I5,P4:S7)</f>
+        <f t="array" aca="1" ref="P9:T17" ca="1">_xll.SQL.QUERY(I5,P4:S7)</f>
         <v>double</v>
       </c>
       <c r="Q9" s="5" t="str">
@@ -914,7 +917,7 @@
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5872656787587347</v>
+        <v>0.91797624335892647</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -922,11 +925,11 @@
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>k</v>
+        <v>s</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45217.028797897874</v>
+        <v>45244.235606574628</v>
       </c>
       <c r="F10" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
@@ -958,19 +961,19 @@
       </c>
       <c r="P10" s="1">
         <f ca="1"/>
-        <v>0.5872656787587347</v>
+        <v>0.53297390063127625</v>
       </c>
       <c r="Q10" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R10" s="1" t="str">
         <f ca="1"/>
-        <v>k</v>
+        <v>q</v>
       </c>
       <c r="S10" s="1">
         <f ca="1"/>
-        <v>45217.028796296298</v>
+        <v>45297.81144675926</v>
       </c>
       <c r="T10" s="1" t="b">
         <f ca="1"/>
@@ -980,7 +983,7 @@
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94849605156548777</v>
+        <v>0.53297390063127625</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -988,15 +991,15 @@
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>a</v>
+        <v>q</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45301.744790840399</v>
+        <v>45297.811450547291</v>
       </c>
       <c r="F11" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <f ca="1"/>
@@ -1024,19 +1027,19 @@
       </c>
       <c r="P11" s="1">
         <f ca="1"/>
-        <v>0.68584708025551921</v>
+        <v>0.54333179960454681</v>
       </c>
       <c r="Q11" s="1">
         <f ca="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1" t="str">
         <f ca="1"/>
-        <v>g</v>
+        <v>d</v>
       </c>
       <c r="S11" s="1">
         <f ca="1"/>
-        <v>45266.044085648144</v>
+        <v>45253.512835648144</v>
       </c>
       <c r="T11" s="1" t="b">
         <f ca="1"/>
@@ -1046,39 +1049,39 @@
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1984911974210527</v>
+        <v>0.55543485205297927</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>a</v>
+        <v>o</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45287.542106678149</v>
+        <v>45285.792837288529</v>
       </c>
       <c r="F12" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <f ca="1"/>
-        <v>0.75775104963309181</v>
+        <v>0.55543485205297927</v>
       </c>
       <c r="Q12" s="1">
         <f ca="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R12" s="1" t="str">
         <f ca="1"/>
-        <v>f</v>
+        <v>o</v>
       </c>
       <c r="S12" s="1">
         <f ca="1"/>
-        <v>45261.516145833331</v>
+        <v>45285.79283564815</v>
       </c>
       <c r="T12" s="1" t="b">
         <f ca="1"/>
@@ -1088,86 +1091,345 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15270737262262768</v>
+        <v>0.96421417897570449</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>p</v>
+        <v>h</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45274.945589757073</v>
+        <v>45222.874777450888</v>
       </c>
       <c r="F13" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
+      <c r="H13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="I13:N19" ca="1">_xll.SQL.TABLE_LIST(I5)</f>
+        <v>schema</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f ca="1"/>
+        <v>name</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f ca="1"/>
+        <v>type</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f ca="1"/>
+        <v>ncol</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f ca="1"/>
+        <v>wr</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f ca="1"/>
+        <v>strict</v>
+      </c>
       <c r="P13" s="1">
         <f ca="1"/>
-        <v>0.94849605156548777</v>
+        <v>0.71924249081001557</v>
       </c>
       <c r="Q13" s="1">
         <f ca="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R13" s="1" t="str">
         <f ca="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="S13" s="1">
         <f ca="1"/>
-        <v>45301.744780092587</v>
+        <v>45302.911377314813</v>
       </c>
       <c r="T13" s="1" t="b">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38288710362430667</v>
+        <v>0.29708189497512372</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>p</v>
+        <v>t</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45234.887118566498</v>
+        <v>45245.614460964789</v>
       </c>
       <c r="F14" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f ca="1"/>
+        <v>main</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f ca="1"/>
+        <v>frob</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f ca="1"/>
+        <v>table</v>
+      </c>
+      <c r="L14" s="1">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f ca="1"/>
+        <v>0.78611058991781702</v>
+      </c>
+      <c r="Q14" s="1">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f ca="1"/>
+        <v>t</v>
+      </c>
+      <c r="S14" s="1">
+        <f ca="1"/>
+        <v>45282.311539351853</v>
+      </c>
+      <c r="T14" s="1" t="b">
+        <f ca="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39233166460269375</v>
+        <v>0.54333179960454681</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>h</v>
+        <v>d</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45225.169045687348</v>
+        <v>45253.512844917677</v>
       </c>
       <c r="F15" s="1" t="b">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f ca="1"/>
+        <v>main</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f ca="1"/>
+        <v>baz</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f ca="1"/>
+        <v>table</v>
+      </c>
+      <c r="L15" s="1">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="M15" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f ca="1"/>
+        <v>0.90771146098546229</v>
+      </c>
+      <c r="Q15" s="1">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="S15" s="1">
+        <f ca="1"/>
+        <v>45283.254224537042</v>
+      </c>
+      <c r="T15" s="1" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I16" s="1" t="str">
+        <f ca="1"/>
+        <v>main</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f ca="1"/>
+        <v>blah</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f ca="1"/>
+        <v>table</v>
+      </c>
+      <c r="L16" s="1">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="M16" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f ca="1"/>
+        <v>0.91797624335892647</v>
+      </c>
+      <c r="Q16" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f ca="1"/>
+        <v>s</v>
+      </c>
+      <c r="S16" s="1">
+        <f ca="1"/>
+        <v>45244.235601851848</v>
+      </c>
+      <c r="T16" s="1" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" t="str">
+        <f ca="1"/>
+        <v>main</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f ca="1"/>
+        <v>bar</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f ca="1"/>
+        <v>table</v>
+      </c>
+      <c r="L17" s="1">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f ca="1"/>
+        <v>0.96421417897570449</v>
+      </c>
+      <c r="Q17" s="1">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f ca="1"/>
+        <v>h</v>
+      </c>
+      <c r="S17" s="1">
+        <f ca="1"/>
+        <v>45222.874768518523</v>
+      </c>
+      <c r="T17" s="1" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I18" s="1" t="str">
+        <f ca="1"/>
+        <v>main</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f ca="1"/>
+        <v>sqlite_schema</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f ca="1"/>
+        <v>table</v>
+      </c>
+      <c r="L18" s="1">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I19" s="1" t="str">
+        <f ca="1"/>
+        <v>temp</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f ca="1"/>
+        <v>sqlite_temp_schema</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f ca="1"/>
+        <v>table</v>
+      </c>
+      <c r="L19" s="1">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="M19" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <f ca="1"/>
         <v>0</v>
       </c>
     </row>
